--- a/Sample Docs/Topics.xlsx
+++ b/Sample Docs/Topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vamsi\Desktop\GIT\Resonance\Sample Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48837D9F-5753-471A-A188-BDF2FCE75E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34741ECB-A946-4141-BDE5-219D4C9E83FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Body Fluids and Circulation</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA60C42-192B-42B6-8955-A59C8530898C}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,7 +425,7 @@
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,8 +435,11 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -444,7 +450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -455,7 +461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -466,7 +472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
